--- a/Index Coding.xlsx
+++ b/Index Coding.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lsp_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lsp_design\lsp_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="ID FORM" sheetId="1" r:id="rId1"/>
-    <sheet name="ID TABEL" sheetId="2" r:id="rId2"/>
-    <sheet name="ID MODAL" sheetId="3" r:id="rId3"/>
+    <sheet name="View ID FORM" sheetId="1" r:id="rId1"/>
+    <sheet name="View ID TABEL" sheetId="2" r:id="rId2"/>
+    <sheet name="View ID MODAL" sheetId="3" r:id="rId3"/>
     <sheet name="aksiTambahData" sheetId="4" r:id="rId4"/>
     <sheet name="aksiAmbilData" sheetId="5" r:id="rId5"/>
     <sheet name="aksiUpdateData" sheetId="6" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
   <si>
     <t>id_form_urutan_uk</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>wenzhixin</t>
+  </si>
+  <si>
+    <t>id_tabel_pengelola_user</t>
+  </si>
+  <si>
+    <t>id_form_pengelola_user</t>
   </si>
 </sst>
 </file>
@@ -440,16 +446,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -479,6 +485,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -486,16 +503,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -547,6 +564,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -557,7 +579,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
